--- a/TNR_PREJDD/PREJDD.RO.SOCIETE.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.SOCIETE.xlsx
@@ -37,13 +37,13 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>DRAFT</t>
+    <t>Création de l'onglet 001 pour la table SOCIETE</t>
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
   </si>
   <si>
-    <t>CAS_DE_TEST</t>
+    <t>CAS DE TEST (SOCIETE)</t>
   </si>
   <si>
     <t>ID_NUMSOC</t>
@@ -320,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -339,15 +339,23 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -407,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -420,19 +428,25 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -654,7 +668,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
+    <col customWidth="1" min="3" max="3" width="36.0"/>
     <col customWidth="1" min="4" max="4" width="10.63"/>
     <col customWidth="1" min="5" max="5" width="12.13"/>
     <col customWidth="1" min="6" max="6" width="10.63"/>
@@ -684,12 +698,12 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1808,1851 +1822,1851 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <f t="shared" ref="C2:C18" si="1">B2</f>
         <v>1000</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="G2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="8" t="s">
+      <c r="K2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>1001.0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <f t="shared" si="1"/>
         <v>1001</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="G3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="8" t="s">
+      <c r="K3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>1002.0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <f t="shared" si="1"/>
         <v>1002</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="8" t="s">
+      <c r="K4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>1003.0</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <f t="shared" si="1"/>
         <v>1003</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="G5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="8" t="s">
+      <c r="K5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>1004.0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <f t="shared" si="1"/>
         <v>1004</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="G6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="8" t="s">
+      <c r="K6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>1005.0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <f t="shared" si="1"/>
         <v>1005</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="G7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" s="8" t="s">
+      <c r="K7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>1006.0</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <f t="shared" si="1"/>
         <v>1006</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="G8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V8" s="8" t="s">
+      <c r="K8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>1007.0</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <f t="shared" si="1"/>
         <v>1007</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="G9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" s="8" t="s">
+      <c r="K9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>1008.0</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="G10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V10" s="8" t="s">
+      <c r="K10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>1009.0</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <f t="shared" si="1"/>
         <v>1009</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="G11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V11" s="8" t="s">
+      <c r="K11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="10">
         <v>1010.0</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <f t="shared" si="1"/>
         <v>1010</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="G12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V12" s="8" t="s">
+      <c r="K12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>1011.0</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <f t="shared" si="1"/>
         <v>1011</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="G13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="8" t="s">
+      <c r="K13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="10">
         <v>1012.0</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <f t="shared" si="1"/>
         <v>1012</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="G14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V14" s="8" t="s">
+      <c r="K14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="10">
         <v>1013.0</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <f t="shared" si="1"/>
         <v>1013</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="8" t="s">
+      <c r="G15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V15" s="8" t="s">
+      <c r="K15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="10">
         <v>1014.0</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <f t="shared" si="1"/>
         <v>1014</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="G16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V16" s="8" t="s">
+      <c r="K16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="10">
         <v>1015.0</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="10">
         <f t="shared" si="1"/>
         <v>1015</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="G17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" s="8" t="s">
+      <c r="K17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="10">
         <v>1016.0</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="10">
         <f t="shared" si="1"/>
         <v>1016</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="G18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V18" s="8" t="s">
+      <c r="K18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V18" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="12"/>
+      <c r="A29" s="14"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="14"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="12"/>
+      <c r="A34" s="14"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="12"/>
+      <c r="A35" s="14"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="12"/>
+      <c r="A38" s="14"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="12"/>
+      <c r="A39" s="14"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="12"/>
+      <c r="A40" s="14"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="12"/>
+      <c r="A41" s="14"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="12"/>
+      <c r="A42" s="14"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="12"/>
+      <c r="A43" s="14"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="12"/>
+      <c r="A44" s="14"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="12"/>
+      <c r="A45" s="14"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="12"/>
+      <c r="A46" s="14"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="12"/>
+      <c r="A47" s="14"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="12"/>
+      <c r="A48" s="14"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="12"/>
+      <c r="A49" s="14"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="12"/>
+      <c r="A50" s="14"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="12"/>
+      <c r="A51" s="14"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="12"/>
+      <c r="A52" s="14"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="12"/>
+      <c r="A53" s="14"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="12"/>
+      <c r="A54" s="14"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="12"/>
+      <c r="A55" s="14"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="12"/>
+      <c r="A56" s="14"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="12"/>
+      <c r="A57" s="14"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="12"/>
+      <c r="A58" s="14"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="12"/>
+      <c r="A59" s="14"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="12"/>
+      <c r="A60" s="14"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="12"/>
+      <c r="A61" s="14"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="12"/>
+      <c r="A62" s="14"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="12"/>
+      <c r="A63" s="14"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="12"/>
+      <c r="A64" s="14"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="12"/>
+      <c r="A65" s="14"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="12"/>
+      <c r="A66" s="14"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="12"/>
+      <c r="A67" s="14"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="12"/>
+      <c r="A68" s="14"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="12"/>
+      <c r="A69" s="14"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="12"/>
+      <c r="A70" s="14"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="12"/>
+      <c r="A71" s="14"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="12"/>
+      <c r="A72" s="14"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="12"/>
+      <c r="A73" s="14"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="12"/>
+      <c r="A74" s="14"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="12"/>
+      <c r="A75" s="14"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="12"/>
+      <c r="A76" s="14"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="12"/>
+      <c r="A77" s="14"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="12"/>
+      <c r="A78" s="14"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="12"/>
+      <c r="A79" s="14"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="12"/>
+      <c r="A80" s="14"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="12"/>
+      <c r="A81" s="14"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="12"/>
+      <c r="A82" s="14"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="12"/>
+      <c r="A83" s="14"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="12"/>
+      <c r="A84" s="14"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="12"/>
+      <c r="A85" s="14"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="12"/>
+      <c r="A86" s="14"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="12"/>
+      <c r="A87" s="14"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="12"/>
+      <c r="A88" s="14"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="12"/>
+      <c r="A89" s="14"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="12"/>
+      <c r="A90" s="14"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="12"/>
+      <c r="A91" s="14"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="12"/>
+      <c r="A92" s="14"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="12"/>
+      <c r="A93" s="14"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="12"/>
+      <c r="A94" s="14"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="12"/>
+      <c r="A95" s="14"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="12"/>
+      <c r="A96" s="14"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="12"/>
+      <c r="A97" s="14"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="12"/>
+      <c r="A98" s="14"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="12"/>
+      <c r="A99" s="14"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="12"/>
+      <c r="A100" s="14"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="12"/>
+      <c r="A101" s="14"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="12"/>
+      <c r="A102" s="14"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="12"/>
+      <c r="A103" s="14"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="12"/>
+      <c r="A104" s="14"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="12"/>
+      <c r="A105" s="14"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="12"/>
+      <c r="A106" s="14"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="12"/>
+      <c r="A107" s="14"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="12"/>
+      <c r="A108" s="14"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="12"/>
+      <c r="A109" s="14"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="12"/>
+      <c r="A110" s="14"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="12"/>
+      <c r="A111" s="14"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="12"/>
+      <c r="A112" s="14"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="12"/>
+      <c r="A113" s="14"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="12"/>
+      <c r="A114" s="14"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="12"/>
+      <c r="A115" s="14"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="12"/>
+      <c r="A116" s="14"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="12"/>
+      <c r="A117" s="14"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="12"/>
+      <c r="A118" s="14"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="12"/>
+      <c r="A119" s="14"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="12"/>
+      <c r="A120" s="14"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="12"/>
+      <c r="A121" s="14"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="12"/>
+      <c r="A122" s="14"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="12"/>
+      <c r="A123" s="14"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="12"/>
+      <c r="A124" s="14"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="12"/>
+      <c r="A125" s="14"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="12"/>
+      <c r="A126" s="14"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="12"/>
+      <c r="A127" s="14"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="12"/>
+      <c r="A128" s="14"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="12"/>
+      <c r="A129" s="14"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="12"/>
+      <c r="A130" s="14"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="12"/>
+      <c r="A131" s="14"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="12"/>
+      <c r="A132" s="14"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="12"/>
+      <c r="A133" s="14"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="12"/>
+      <c r="A134" s="14"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="12"/>
+      <c r="A135" s="14"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="12"/>
+      <c r="A136" s="14"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="12"/>
+      <c r="A137" s="14"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="12"/>
+      <c r="A138" s="14"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="12"/>
+      <c r="A139" s="14"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="12"/>
+      <c r="A140" s="14"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="12"/>
+      <c r="A141" s="14"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="12"/>
+      <c r="A142" s="14"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="12"/>
+      <c r="A143" s="14"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="12"/>
+      <c r="A144" s="14"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="12"/>
+      <c r="A145" s="14"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="12"/>
+      <c r="A146" s="14"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="12"/>
+      <c r="A147" s="14"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="12"/>
+      <c r="A148" s="14"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="12"/>
+      <c r="A149" s="14"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="12"/>
+      <c r="A150" s="14"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="12"/>
+      <c r="A151" s="14"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="12"/>
+      <c r="A152" s="14"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="12"/>
+      <c r="A153" s="14"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="12"/>
+      <c r="A154" s="14"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="12"/>
+      <c r="A155" s="14"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="12"/>
+      <c r="A156" s="14"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="12"/>
+      <c r="A157" s="14"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="12"/>
+      <c r="A158" s="14"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="12"/>
+      <c r="A159" s="14"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="12"/>
+      <c r="A160" s="14"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="12"/>
+      <c r="A161" s="14"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="12"/>
+      <c r="A162" s="14"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="12"/>
+      <c r="A163" s="14"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="12"/>
+      <c r="A164" s="14"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="12"/>
+      <c r="A165" s="14"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="12"/>
+      <c r="A166" s="14"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="12"/>
+      <c r="A167" s="14"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="12"/>
+      <c r="A168" s="14"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="12"/>
+      <c r="A169" s="14"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="12"/>
+      <c r="A170" s="14"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="12"/>
+      <c r="A171" s="14"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="12"/>
+      <c r="A172" s="14"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="12"/>
+      <c r="A173" s="14"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="12"/>
+      <c r="A174" s="14"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="12"/>
+      <c r="A175" s="14"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="12"/>
+      <c r="A176" s="14"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="12"/>
+      <c r="A177" s="14"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="12"/>
+      <c r="A178" s="14"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="12"/>
+      <c r="A179" s="14"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="12"/>
+      <c r="A180" s="14"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="12"/>
+      <c r="A181" s="14"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="12"/>
+      <c r="A182" s="14"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="12"/>
+      <c r="A183" s="14"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="12"/>
+      <c r="A184" s="14"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="12"/>
+      <c r="A185" s="14"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="12"/>
+      <c r="A186" s="14"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="12"/>
+      <c r="A187" s="14"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="12"/>
+      <c r="A188" s="14"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="12"/>
+      <c r="A189" s="14"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="12"/>
+      <c r="A190" s="14"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="12"/>
+      <c r="A191" s="14"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="12"/>
+      <c r="A192" s="14"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="12"/>
+      <c r="A193" s="14"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="12"/>
+      <c r="A194" s="14"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="12"/>
+      <c r="A195" s="14"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="12"/>
+      <c r="A196" s="14"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="12"/>
+      <c r="A197" s="14"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="12"/>
+      <c r="A198" s="14"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="12"/>
+      <c r="A199" s="14"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="12"/>
+      <c r="A200" s="14"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="12"/>
+      <c r="A201" s="14"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="12"/>
+      <c r="A202" s="14"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="12"/>
+      <c r="A203" s="14"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="12"/>
+      <c r="A204" s="14"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="12"/>
+      <c r="A205" s="14"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="12"/>
+      <c r="A206" s="14"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="12"/>
+      <c r="A207" s="14"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="12"/>
+      <c r="A208" s="14"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="12"/>
+      <c r="A209" s="14"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="12"/>
+      <c r="A210" s="14"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="12"/>
+      <c r="A211" s="14"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="12"/>
+      <c r="A212" s="14"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="12"/>
+      <c r="A213" s="14"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="12"/>
+      <c r="A214" s="14"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="12"/>
+      <c r="A215" s="14"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="12"/>
+      <c r="A216" s="14"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="12"/>
+      <c r="A217" s="14"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="12"/>
+      <c r="A218" s="14"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="12"/>
+      <c r="A219" s="14"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="12"/>
+      <c r="A220" s="14"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_PREJDD/PREJDD.RO.SOCIETE.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.SOCIETE.xlsx
@@ -9,8 +9,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhLq2dW9JNe3zeCLUv1da3EoDz59w=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="7dr6grYq0bZdQB/pxFjV/xSny1xjyBoCa4CJP2tyuqc="/>
     </ext>
   </extLst>
 </workbook>
@@ -115,7 +115,7 @@
     <t>ORG.RO.ACT.001.MAJ.01</t>
   </si>
   <si>
-    <t>ORG.UPD.RO.ACT.001.MAJ.01.A.......</t>
+    <t>ORG.UPD.RO.ACT.001.MAJ.01.A...</t>
   </si>
   <si>
     <t>#1000</t>
@@ -133,13 +133,13 @@
     <t>ORG.RO.ACT.001.LEC.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.001.LEC.01.A...........</t>
+    <t>ORG.RO.ACT.001.LEC.01.A.......</t>
   </si>
   <si>
     <t>#1001</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.001.MAJ.01.A...........</t>
+    <t>ORG.RO.ACT.001.MAJ.01.A.......</t>
   </si>
   <si>
     <t>#1002</t>
@@ -151,7 +151,7 @@
     <t>ORG.RO.ACT.001.SUP.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.001.SUP.01.A...........</t>
+    <t>ORG.RO.ACT.001.SUP.01.A.......</t>
   </si>
   <si>
     <t>#1003</t>
@@ -163,7 +163,7 @@
     <t>ORG.RO.ACT.003HAB.SRA.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.003HAB.SRA.01.A.......</t>
+    <t>ORG.RO.ACT.003HAB.SRA.01.A....</t>
   </si>
   <si>
     <t>#1004</t>
@@ -175,7 +175,7 @@
     <t>ORG.RO.ACT.003HAB.SRM.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.003HAB.SRM.01.A.......</t>
+    <t>ORG.RO.ACT.003HAB.SRM.01.A....</t>
   </si>
   <si>
     <t>#1005</t>
@@ -187,7 +187,7 @@
     <t>ORG.RO.ACT.003HAB.SRS.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.003HAB.SRS.01.A.......</t>
+    <t>ORG.RO.ACT.003HAB.SRS.01.A....</t>
   </si>
   <si>
     <t>#1006</t>
@@ -199,7 +199,7 @@
     <t>ORG.RO.ACT.003MET.SRA.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.003MET.SRA.01.A.......</t>
+    <t>ORG.RO.ACT.003MET.SRA.01.A....</t>
   </si>
   <si>
     <t>#1007</t>
@@ -211,7 +211,7 @@
     <t>ORG.RO.ACT.003MET.SRM.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.003MET.SRM.01.A.......</t>
+    <t>ORG.RO.ACT.003MET.SRM.01.A....</t>
   </si>
   <si>
     <t>#1008</t>
@@ -223,7 +223,7 @@
     <t>ORG.RO.ACT.003MET.SRS.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.003MET.SRS.01.A.......</t>
+    <t>ORG.RO.ACT.003MET.SRS.01.A....</t>
   </si>
   <si>
     <t>#1009</t>
@@ -235,7 +235,7 @@
     <t>ORG.RO.ACT.004EMP.SRA.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.004EMP.SRA.01.A.......</t>
+    <t>ORG.RO.ACT.004EMP.SRA.01.A....</t>
   </si>
   <si>
     <t>#1010</t>
@@ -247,7 +247,7 @@
     <t>ORG.RO.ACT.004EMP.SRM.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.004EMP.SRM.01.A.......</t>
+    <t>ORG.RO.ACT.004EMP.SRM.01.A....</t>
   </si>
   <si>
     <t>#1011</t>
@@ -259,7 +259,7 @@
     <t>ORG.RO.ACT.004EMP.SRS.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.004EMP.SRS.01.A.......</t>
+    <t>ORG.RO.ACT.004EMP.SRS.01.A....</t>
   </si>
   <si>
     <t>#1012</t>
@@ -271,7 +271,7 @@
     <t>ORG.RO.ACT.005.FON.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.005.FON.01.SRC.A.......</t>
+    <t>ORG.RO.ACT.005.FON.01.SRC.A...</t>
   </si>
   <si>
     <t>#1013</t>
@@ -283,7 +283,7 @@
     <t>ORG.RO.ACT.003HAB.SRL.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.003HAB.SRL.01.A.......</t>
+    <t>ORG.RO.ACT.003HAB.SRL.01.A....</t>
   </si>
   <si>
     <t>#1014</t>
@@ -295,7 +295,7 @@
     <t>ORG.RO.ACT.003MET.SRL.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.003MET.SRL.01.A.......</t>
+    <t>ORG.RO.ACT.003MET.SRL.01.A....</t>
   </si>
   <si>
     <t>#1015</t>
@@ -307,7 +307,7 @@
     <t>ORG.RO.ACT.004EMP.SRL.01</t>
   </si>
   <si>
-    <t>ORG.RO.ACT.004EMP.SRL.01.A.......</t>
+    <t>ORG.RO.ACT.004EMP.SRL.01.A....</t>
   </si>
   <si>
     <t>#1016</t>
@@ -1817,7 +1817,7 @@
     <col customWidth="1" min="1" max="1" width="22.38"/>
     <col customWidth="1" min="2" max="3" width="12.63"/>
     <col customWidth="1" min="4" max="4" width="24.38"/>
-    <col customWidth="1" min="5" max="5" width="28.63"/>
+    <col customWidth="1" min="5" max="5" width="33.63"/>
     <col customWidth="1" min="6" max="6" width="12.63"/>
   </cols>
   <sheetData>
